--- a/Definitions/h_Definitions_Camel.xlsx
+++ b/Definitions/h_Definitions_Camel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -732,15 +732,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" customWidth="1"/>
-    <col min="2" max="2" width="118.5703125" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="2" max="2" width="118.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -782,8 +782,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="120.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.625" customWidth="1"/>
+    <col min="2" max="2" width="120.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -959,7 +959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="180">
+    <row r="27" spans="1:2" ht="165">
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
@@ -998,15 +998,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="127.140625" customWidth="1"/>
+    <col min="2" max="2" width="127.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Definitions/h_Definitions_Camel.xlsx
+++ b/Definitions/h_Definitions_Camel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Topics</t>
   </si>
@@ -254,9 +254,6 @@
     <t>https://github.com/avinashbabudonthu/CamelRest</t>
   </si>
   <si>
-    <t>https://github.com/avinashbabudonthu/ApacheCamel</t>
-  </si>
-  <si>
     <t>Projects</t>
   </si>
   <si>
@@ -294,6 +291,36 @@
   </si>
   <si>
     <t>rest with camel</t>
+  </si>
+  <si>
+    <t>E:\workspaces\jms-ws</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/ActiveMQAllPractice.git</t>
+  </si>
+  <si>
+    <t>Github Repository for Camel + ActiveMQ Examples</t>
+  </si>
+  <si>
+    <t>Eclipse Workspace for Camel + ActiveMQ Examples</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/ApacheCamel.git</t>
+  </si>
+  <si>
+    <t>Github Repository for Camel Examples</t>
+  </si>
+  <si>
+    <t>Workspace and Projects</t>
+  </si>
+  <si>
+    <t>Eclipse workspace for Camel Examples</t>
+  </si>
+  <si>
+    <t>E:\workspaces\camel-ws</t>
+  </si>
+  <si>
+    <t>Camel Getting Started - Apache documentation</t>
   </si>
 </sst>
 </file>
@@ -403,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,6 +448,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -739,8 +769,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
-    <col min="2" max="2" width="118.625" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -753,12 +783,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -773,17 +803,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.625" customWidth="1"/>
-    <col min="2" max="2" width="120.75" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -795,200 +825,225 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="12"/>
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:2" ht="150">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="9"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" ht="105">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="165">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" ht="165">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="225">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" ht="225">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="165">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:2" ht="180">
+      <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="9"/>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:2" ht="120">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A20:A21"/>
+  <mergeCells count="5">
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Definitions!A2" display="Up"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -998,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
@@ -1006,7 +1061,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="127.125" customWidth="1"/>
+    <col min="2" max="2" width="127.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1018,17 +1073,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1041,37 +1096,37 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">

--- a/Definitions/h_Definitions_Camel.xlsx
+++ b/Definitions/h_Definitions_Camel.xlsx
@@ -803,11 +803,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,159 +881,159 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="150">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:2" ht="150">
+      <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="10"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" ht="105">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" ht="165">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="225">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" ht="225">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="180">
-      <c r="A28" s="10" t="s">
+    <row r="29" spans="1:2" ht="180">
+      <c r="A29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="120">
-      <c r="A29" s="10"/>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:2" ht="120">
+      <c r="A30" s="10"/>
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
@@ -1042,7 +1042,7 @@
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Definitions!A2" display="Up"/>
-    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Definitions/h_Definitions_Camel.xlsx
+++ b/Definitions/h_Definitions_Camel.xlsx
@@ -807,7 +807,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/h_Definitions_Camel.xlsx
+++ b/Definitions/h_Definitions_Camel.xlsx
@@ -807,7 +807,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/h_Definitions_Camel.xlsx
+++ b/Definitions/h_Definitions_Camel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Topics</t>
   </si>
@@ -263,24 +263,9 @@
     <t>Camel with REST</t>
   </si>
   <si>
-    <t>http://examples.javacodegeeks.com/enterprise-java/apache-camel/apache-camel-activemq-example/</t>
-  </si>
-  <si>
-    <t>ActiveMQ and apache camel</t>
-  </si>
-  <si>
-    <t>http://www.mastertheintegration.com/camel/camel-introduction.html</t>
-  </si>
-  <si>
-    <t>camel intro</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
-    <t>http://camel.apache.org/getting-started.html</t>
-  </si>
-  <si>
     <t>Definitions</t>
   </si>
   <si>
@@ -293,34 +278,7 @@
     <t>rest with camel</t>
   </si>
   <si>
-    <t>E:\workspaces\jms-ws</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/ActiveMQAllPractice.git</t>
-  </si>
-  <si>
-    <t>Github Repository for Camel + ActiveMQ Examples</t>
-  </si>
-  <si>
-    <t>Eclipse Workspace for Camel + ActiveMQ Examples</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/ApacheCamel.git</t>
-  </si>
-  <si>
-    <t>Github Repository for Camel Examples</t>
-  </si>
-  <si>
-    <t>Workspace and Projects</t>
-  </si>
-  <si>
-    <t>Eclipse workspace for Camel Examples</t>
-  </si>
-  <si>
-    <t>E:\workspaces\camel-ws</t>
-  </si>
-  <si>
-    <t>Camel Getting Started - Apache documentation</t>
+    <t>Update in Cerebro</t>
   </si>
 </sst>
 </file>
@@ -430,16 +388,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -448,9 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -774,21 +725,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -803,11 +754,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,233 +768,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
+      <c r="A3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>57</v>
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>60</v>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="11"/>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="150">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="105">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="165">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="225">
       <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="180">
+      <c r="A20" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="120">
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="10"/>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="105">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="165">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="225">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="180">
-      <c r="A29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="120">
-      <c r="A30" s="10"/>
-      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A22:A23"/>
+  <mergeCells count="4">
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Definitions!A2" display="Up"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1065,18 +948,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -1098,35 +981,35 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="11"/>
+      <c r="A12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
